--- a/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>134,56%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 27,08</t>
+          <t>-8,38; 18,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 15,22</t>
+          <t>-6,78; 30,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 858,62</t>
+          <t>-84,0; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; —</t>
+          <t>-33,43; 466,99</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,61</t>
+          <t>44,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,22</t>
+          <t>21,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>307,56%</t>
+          <t>455,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>338,79%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,35; 51,11</t>
+          <t>27,85; 61,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,65; 52,51</t>
+          <t>-1,34; 48,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>130,47; 858,27</t>
+          <t>121,59; 1846,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>127,84; 849,65</t>
+          <t>-3,66; 109,55</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>39,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,45</t>
+          <t>32,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>374,12%</t>
+          <t>332,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>418,5%</t>
+          <t>60,18%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,33; 50,04</t>
+          <t>25,27; 51,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,69; 53,18</t>
+          <t>17,45; 46,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>170,13; 764,57</t>
+          <t>123,81; 922,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>199,53; 843,83</t>
+          <t>25,97; 107,69</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,18</t>
+          <t>53,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,88</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>309,36%</t>
+          <t>382,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>371,95%</t>
+          <t>22,47%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,87; 55,01</t>
+          <t>40,47; 64,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,02; 58,52</t>
+          <t>3,13; 27,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>176,06; 580,05</t>
+          <t>175,7; 798,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>200,23; 655,91</t>
+          <t>4,22; 43,23</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,84</t>
+          <t>55,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,41</t>
+          <t>27,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>240,41%</t>
+          <t>291,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>227,96%</t>
+          <t>47,16%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,18; 59,02</t>
+          <t>34,89; 70,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 57,59</t>
+          <t>10,4; 42,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>111,03; 467,44</t>
+          <t>95,8; 686,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97,08; 411,97</t>
+          <t>15,78; 94,74</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>41,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,75</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>328,33%</t>
+          <t>531,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>284,01%</t>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,76; 53,98</t>
+          <t>22,16; 57,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 38,38</t>
+          <t>-15,72; 34,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>147,7; 846,3</t>
+          <t>99,8; 2497,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,7; 802,01</t>
+          <t>-24,43; 88,62</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>40,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,13</t>
+          <t>19,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>283,56%</t>
+          <t>343,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>317,57%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,24; 42,29</t>
+          <t>34,05; 45,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,69; 41,42</t>
+          <t>9,73; 28,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>205,42; 388,98</t>
+          <t>220,95; 530,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>224,18; 452,95</t>
+          <t>15,43; 56,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>96,28%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>94,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.018290183037534</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.22446487555567</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.8209914733539097</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.071674481839147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 18,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 30,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-84,0; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,43; 466,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.946532468263074</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.099486979177607</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.8324883789479953</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2825737032473893</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.25447076506606</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.59094561094635</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>5.386082918901165</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>44,82</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>21,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>455,63%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>33,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>27,85; 61,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 48,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>121,59; 1846,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 109,55</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>44.50734012152454</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>22.55319103301176</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.168121333925597</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3516683415279918</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>39,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>32,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>332,3%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>60,18%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>26.14580152372469</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.9694838095614873</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9383122715079663</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.0327140560406414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>25,27; 51,26</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 46,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>123,81; 922,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>25,97; 107,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>61.4753046816918</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>48.82084062083918</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>16.58519555352477</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.153110080488281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +714,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>53,96</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>382,78%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>22,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>38.65292058105828</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>31.48602858257905</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>3.31567317125606</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5613209054718725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>40,47; 64,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 27,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>175,7; 798,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 43,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>24.20432366564728</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>15.95458131745382</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>1.190883324253097</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.2390850776640145</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>50.22939811807024</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>45.12183166303488</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>9.057701598711631</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.01539482415814</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>55,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>27,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>291,13%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>47,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>34,89; 70,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10,4; 42,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>95,8; 686,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>15,78; 94,74</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>51.47793663804903</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.95019251324923</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.387133781839327</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2193842856624637</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>41,84</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>531,21%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>37.10046302681209</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.513038835528763</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.447064935890282</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.03544663059920239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>22,16; 57,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-15,72; 34,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>99,8; 2497,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-24,43; 88,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>62.62597583899523</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>26.89428795531138</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>6.706506635325471</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4274325744386997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +842,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>40,2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>19,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>343,19%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>35,42%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>54.94022071105257</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>27.56686926189259</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>2.840903797255045</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.4715720319920784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>34,05; 45,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9,73; 28,27</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>220,95; 530,78</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 56,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>33.63004803899445</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>11.15144081462378</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.8918978490715288</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.1666840161657906</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>70.60766960208332</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>42.33901849331311</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>6.98540674871559</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.9112341919039667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>40.53027403824975</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>7.032867820655819</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>5.05683824569329</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.142423664559399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>19.66238992913211</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-16.53035752022274</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.8162089904782566</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2665158248562879</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>57.88295631137336</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>33.31233888163295</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>22.98978905452456</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.8459627093923316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>39.01420444589756</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>19.15993675014043</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>3.170627236826071</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.3499767203685109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>32.5979770828426</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>9.398959793311157</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>2.037078278212584</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.1527515832907703</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>44.97978169262998</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>27.92537532774196</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>4.890052038058029</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5631833372048463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1032,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
